--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itga6</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itga6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H2">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I2">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J2">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>95.31192489819401</v>
+        <v>133.4012850739458</v>
       </c>
       <c r="R2">
-        <v>857.8073240837462</v>
+        <v>1200.611565665512</v>
       </c>
       <c r="S2">
-        <v>0.07065686123253911</v>
+        <v>0.1029279639755585</v>
       </c>
       <c r="T2">
-        <v>0.07507207602172809</v>
+        <v>0.1066012157633344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H3">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I3">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J3">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>0.433168791558</v>
+        <v>0.8206395176503334</v>
       </c>
       <c r="R3">
-        <v>3.898519124022</v>
+        <v>7.385755658853</v>
       </c>
       <c r="S3">
-        <v>0.0003211177114308831</v>
+        <v>0.0006331779687340519</v>
       </c>
       <c r="T3">
-        <v>0.000341183755178765</v>
+        <v>0.0006557745694613822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H4">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I4">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J4">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>20.695698789396</v>
+        <v>47.23420865817622</v>
       </c>
       <c r="R4">
-        <v>186.261289104564</v>
+        <v>425.107877923586</v>
       </c>
       <c r="S4">
-        <v>0.01534218429682023</v>
+        <v>0.03644433353462726</v>
       </c>
       <c r="T4">
-        <v>0.01630088862962164</v>
+        <v>0.03774494425439399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H5">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I5">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J5">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>4.097303436258</v>
+        <v>2.140991959106</v>
       </c>
       <c r="R5">
-        <v>24.583820617548</v>
+        <v>12.845951754636</v>
       </c>
       <c r="S5">
-        <v>0.003037422658628655</v>
+        <v>0.001651917694171165</v>
       </c>
       <c r="T5">
-        <v>0.002151483670620783</v>
+        <v>0.00114058044570166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H6">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I6">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J6">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>19.961662426768</v>
+        <v>61.39018471897423</v>
       </c>
       <c r="R6">
-        <v>179.654961840912</v>
+        <v>552.511662470768</v>
       </c>
       <c r="S6">
-        <v>0.01479802672714316</v>
+        <v>0.04736661058178636</v>
       </c>
       <c r="T6">
-        <v>0.01572272767361553</v>
+        <v>0.04905701113261968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J7">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>683.6098567739649</v>
+        <v>505.0400529071582</v>
       </c>
       <c r="R7">
-        <v>6152.488710965684</v>
+        <v>4545.360476164424</v>
       </c>
       <c r="S7">
-        <v>0.5067752732815619</v>
+        <v>0.3896719911133353</v>
       </c>
       <c r="T7">
-        <v>0.5384427099941003</v>
+        <v>0.4035784484327785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J8">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>3.106835329075667</v>
@@ -948,10 +948,10 @@
         <v>27.961517961681</v>
       </c>
       <c r="S8">
-        <v>0.002303166502547562</v>
+        <v>0.002397130092501245</v>
       </c>
       <c r="T8">
-        <v>0.00244708705925819</v>
+        <v>0.002482677907280741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J9">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>148.4366589004247</v>
+        <v>178.8226194862358</v>
       </c>
       <c r="R9">
-        <v>1335.929930103822</v>
+        <v>1609.403575376122</v>
       </c>
       <c r="S9">
-        <v>0.1100394144903874</v>
+        <v>0.1379735444549257</v>
       </c>
       <c r="T9">
-        <v>0.1169155711972737</v>
+        <v>0.142897488825915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J10">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>29.387267314259</v>
+        <v>8.105519311162</v>
       </c>
       <c r="R10">
-        <v>176.323603885554</v>
+        <v>48.63311586697201</v>
       </c>
       <c r="S10">
-        <v>0.02178543839970726</v>
+        <v>0.00625394724795959</v>
       </c>
       <c r="T10">
-        <v>0.01543117973428387</v>
+        <v>0.00431809040162343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J11">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>143.1718980296418</v>
+        <v>232.4153183476818</v>
       </c>
       <c r="R11">
-        <v>1288.547082266776</v>
+        <v>2091.737865129136</v>
       </c>
       <c r="S11">
-        <v>0.1061365295295943</v>
+        <v>0.1793238760855857</v>
       </c>
       <c r="T11">
-        <v>0.1127688022725059</v>
+        <v>0.1857235144635362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H12">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I12">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J12">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>136.0945962134875</v>
+        <v>0.3137595528355556</v>
       </c>
       <c r="R12">
-        <v>816.5675772809251</v>
+        <v>2.82383597552</v>
       </c>
       <c r="S12">
-        <v>0.1008899674350931</v>
+        <v>0.0002420863632111499</v>
       </c>
       <c r="T12">
-        <v>0.07146292823273585</v>
+        <v>0.0002507258439908601</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H13">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I13">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J13">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>0.6185158031625001</v>
+        <v>0.001930142486666667</v>
       </c>
       <c r="R13">
-        <v>3.711094818975</v>
+        <v>0.01737128238</v>
       </c>
       <c r="S13">
-        <v>0.0004585195957469676</v>
+        <v>1.489233302551763E-06</v>
       </c>
       <c r="T13">
-        <v>0.0003247810837608718</v>
+        <v>1.542380461785504E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H14">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I14">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J14">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>29.55110573107501</v>
+        <v>0.1110947632844444</v>
       </c>
       <c r="R14">
-        <v>177.30663438645</v>
+        <v>0.99985286956</v>
       </c>
       <c r="S14">
-        <v>0.02190689548174493</v>
+        <v>8.571699880459234E-05</v>
       </c>
       <c r="T14">
-        <v>0.0155172108725395</v>
+        <v>8.877603258841934E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H15">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I15">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J15">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>5.8504836337875</v>
+        <v>0.005035608760000001</v>
       </c>
       <c r="R15">
-        <v>23.40193453515</v>
+        <v>0.03021365256</v>
       </c>
       <c r="S15">
-        <v>0.004337094342573678</v>
+        <v>3.88530707749168E-06</v>
       </c>
       <c r="T15">
-        <v>0.002048049438555235</v>
+        <v>2.682642902712378E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H16">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I16">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J16">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>28.5029852311</v>
+        <v>0.1443895903644445</v>
       </c>
       <c r="R16">
-        <v>171.0179113866</v>
+        <v>1.29950631328</v>
       </c>
       <c r="S16">
-        <v>0.02112990031769996</v>
+        <v>0.0001114061723411372</v>
       </c>
       <c r="T16">
-        <v>0.01496684544912859</v>
+        <v>0.0001153819910197088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H17">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I17">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J17">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>0.07520954444177778</v>
+        <v>66.98217616669599</v>
       </c>
       <c r="R17">
-        <v>0.676885899976</v>
+        <v>401.893057000176</v>
       </c>
       <c r="S17">
-        <v>5.575451708336938E-05</v>
+        <v>0.05168120390795777</v>
       </c>
       <c r="T17">
-        <v>5.923851232596041E-05</v>
+        <v>0.03568372128692087</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H18">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I18">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J18">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>0.0003418085146666667</v>
+        <v>0.412051658349</v>
       </c>
       <c r="R18">
-        <v>0.003076276632</v>
+        <v>2.472309950094</v>
       </c>
       <c r="S18">
-        <v>2.533902952301051E-07</v>
+        <v>0.0003179252600385803</v>
       </c>
       <c r="T18">
-        <v>2.692241797166366E-07</v>
+        <v>0.0002195141659140355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H19">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I19">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J19">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>0.01633073804266667</v>
+        <v>23.716788662738</v>
       </c>
       <c r="R19">
-        <v>0.146976642384</v>
+        <v>142.300731976428</v>
       </c>
       <c r="S19">
-        <v>1.210634128875421E-05</v>
+        <v>0.01829907986074564</v>
       </c>
       <c r="T19">
-        <v>1.286284385862014E-05</v>
+        <v>0.01263475337611882</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H20">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I20">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J20">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>0.003233135048</v>
+        <v>1.075014386082</v>
       </c>
       <c r="R20">
-        <v>0.019398810288</v>
+        <v>4.300057544328</v>
       </c>
       <c r="S20">
-        <v>2.3967953084213E-06</v>
+        <v>0.0008294450982426535</v>
       </c>
       <c r="T20">
-        <v>1.69771103578225E-06</v>
+        <v>0.0003817982228278568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H21">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I21">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J21">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>0.01575151838577778</v>
+        <v>30.824651842544</v>
       </c>
       <c r="R21">
-        <v>0.141763665472</v>
+        <v>184.947911055264</v>
       </c>
       <c r="S21">
-        <v>1.167695280495565E-05</v>
+        <v>0.0237832690490937</v>
       </c>
       <c r="T21">
-        <v>1.240662369349717E-05</v>
+        <v>0.01642135786060963</v>
       </c>
     </row>
   </sheetData>
